--- a/TestData/Deals.xlsx
+++ b/TestData/Deals.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Add Deal" sheetId="1" r:id="rId1"/>
     <sheet name="Deal Widget" sheetId="4" r:id="rId2"/>
+    <sheet name="Duplicate" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="65">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -144,6 +145,72 @@
   </si>
   <si>
     <t>ShareDeal_TC002(2)</t>
+  </si>
+  <si>
+    <t>DuplicateDeal_TC001</t>
+  </si>
+  <si>
+    <t>DuplicateDeal_TC001(2)</t>
+  </si>
+  <si>
+    <t>DUPLICATE</t>
+  </si>
+  <si>
+    <t>Copies</t>
+  </si>
+  <si>
+    <t>Copies created successfully</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DuplicateDeal_TC001(3)</t>
+  </si>
+  <si>
+    <t>AutoDeal(1)</t>
+  </si>
+  <si>
+    <t>DuplicateDeal_TC002</t>
+  </si>
+  <si>
+    <t>DuplicateDeal_TC002(2)</t>
+  </si>
+  <si>
+    <t>AutoDeal(2)</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC001</t>
+  </si>
+  <si>
+    <t>WITHDRAW</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC001(2)</t>
+  </si>
+  <si>
+    <t>WithDraw</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC001(3)</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC002</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC002(2)</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC002(3)</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC003</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC003(2)</t>
+  </si>
+  <si>
+    <t>WithDrawDeal_TC003(3)</t>
   </si>
 </sst>
 </file>
@@ -498,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -746,6 +813,196 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -754,15 +1011,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
@@ -861,8 +1118,340 @@
         <v>36</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/Deals.xlsx
+++ b/TestData/Deals.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Add Deal" sheetId="1" r:id="rId1"/>
-    <sheet name="Deal Widget" sheetId="4" r:id="rId2"/>
-    <sheet name="Duplicate" sheetId="5" r:id="rId3"/>
+    <sheet name="Edit Deal" sheetId="6" r:id="rId2"/>
+    <sheet name="Deal Widget" sheetId="4" r:id="rId3"/>
+    <sheet name="Duplicate" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Edit Deal'!$A$1:$N$2</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="93">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -211,6 +215,90 @@
   </si>
   <si>
     <t>WithDrawDeal_TC003(3)</t>
+  </si>
+  <si>
+    <t>EditDeal_TC001</t>
+  </si>
+  <si>
+    <t>EditDeal_TC001(2)</t>
+  </si>
+  <si>
+    <t>EDIT</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Edited deal successfully</t>
+  </si>
+  <si>
+    <t>EditDeal_TC001(3)</t>
+  </si>
+  <si>
+    <t>EditDeal_TC002</t>
+  </si>
+  <si>
+    <t>EditDeal_TC002(2)</t>
+  </si>
+  <si>
+    <t>EditDeal_TC002(3)</t>
+  </si>
+  <si>
+    <t>EditDeal_TC003</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>EditDeal_TC003(2)</t>
+  </si>
+  <si>
+    <t>EditDeal_TC003(3)</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC001</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC001(2)</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC002</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC002(2)</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC003</t>
+  </si>
+  <si>
+    <t>ReShareDeal_TC003(2)</t>
+  </si>
+  <si>
+    <t>DiscardDeal_TC001</t>
+  </si>
+  <si>
+    <t>DISCARD</t>
+  </si>
+  <si>
+    <t>DiscardDeal_TC001(2)</t>
+  </si>
+  <si>
+    <t>Unable to find Deal</t>
+  </si>
+  <si>
+    <t>DiscardDeal_TC002</t>
+  </si>
+  <si>
+    <t>DiscardDeal_TC003</t>
+  </si>
+  <si>
+    <t>DiscardDeal_TC002(2)</t>
+  </si>
+  <si>
+    <t>DiscardDeal_TC003(2)</t>
   </si>
 </sst>
 </file>
@@ -565,10 +653,796 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J4" sqref="J4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,13 +1499,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -639,17 +1513,17 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
-        <v>10</v>
+      <c r="F2" s="2">
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -658,18 +1532,18 @@
         <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -677,17 +1551,17 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3">
-        <v>20</v>
+      <c r="F3" s="2">
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="I3">
-        <v>1</v>
+      <c r="I3" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -696,18 +1570,18 @@
         <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -715,17 +1589,17 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4">
-        <v>5</v>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="J4" t="s">
         <v>32</v>
@@ -734,288 +1608,19 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1390,13 +1995,370 @@
         <v>36</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/TestData/Deals.xlsx
+++ b/TestData/Deals.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Add Deal" sheetId="1" r:id="rId1"/>
     <sheet name="Edit Deal" sheetId="6" r:id="rId2"/>
     <sheet name="Deal Widget" sheetId="4" r:id="rId3"/>
-    <sheet name="Duplicate" sheetId="5" r:id="rId4"/>
+    <sheet name="Counter Deal" sheetId="7" r:id="rId4"/>
+    <sheet name="Duplicate" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Edit Deal'!$A$1:$N$2</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="114">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -79,9 +80,6 @@
     <t>AutoDeal</t>
   </si>
   <si>
-    <t>Ammonia</t>
-  </si>
-  <si>
     <t>Miles (MI)</t>
   </si>
   <si>
@@ -299,13 +297,79 @@
   </si>
   <si>
     <t>DiscardDeal_TC003(2)</t>
+  </si>
+  <si>
+    <t>EditDeal_TC004</t>
+  </si>
+  <si>
+    <t>Cottonseed</t>
+  </si>
+  <si>
+    <t>EditDeal_TC004(2)</t>
+  </si>
+  <si>
+    <t>EditDeal_TC005</t>
+  </si>
+  <si>
+    <t>EditDeal_TC006</t>
+  </si>
+  <si>
+    <t>EditDeal_TC005(2)</t>
+  </si>
+  <si>
+    <t>EditDeal_TC006(2)</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC001</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC001(2)</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC002</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC003</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC002(2)</t>
+  </si>
+  <si>
+    <t>PublicShareDeal_TC003(2)</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC001</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC001(2)</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Conversation Count</t>
+  </si>
+  <si>
+    <t>San Jose, CA, USA</t>
+  </si>
+  <si>
+    <t>Rate/UOM</t>
+  </si>
+  <si>
+    <t>$ 5.00/ea</t>
+  </si>
+  <si>
+    <t>Countered deal successfully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +384,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -342,13 +412,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,13 +724,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -711,13 +784,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -729,19 +802,19 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -749,13 +822,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -767,19 +840,19 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -787,13 +860,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -805,19 +878,19 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
         <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -825,13 +898,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -843,19 +916,19 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -863,13 +936,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -881,19 +954,19 @@
         <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -901,13 +974,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -919,19 +992,19 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -939,13 +1012,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -957,19 +1030,19 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -977,13 +1050,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -995,19 +1068,19 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
         <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -1015,13 +1088,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1033,19 +1106,19 @@
         <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
         <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -1053,13 +1126,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1071,19 +1144,19 @@
         <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
         <v>32</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -1091,13 +1164,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1109,19 +1182,19 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
         <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1129,13 +1202,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1147,19 +1220,19 @@
         <v>20</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
         <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1167,13 +1240,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1185,19 +1258,19 @@
         <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
         <v>32</v>
-      </c>
-      <c r="K14" t="s">
-        <v>33</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1205,13 +1278,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1223,19 +1296,19 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
         <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1243,13 +1316,13 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -1261,19 +1334,19 @@
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
         <v>32</v>
-      </c>
-      <c r="K16" t="s">
-        <v>33</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1281,13 +1354,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1299,19 +1372,19 @@
         <v>20</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
         <v>27</v>
-      </c>
-      <c r="H17" t="s">
-        <v>28</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1319,13 +1392,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1337,19 +1410,19 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
         <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>21</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1357,13 +1430,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -1375,19 +1448,19 @@
         <v>20</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
         <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>28</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1395,13 +1468,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1413,21 +1486,287 @@
         <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
         <v>32</v>
       </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
       <c r="L20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1439,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,13 +1838,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1517,33 +1856,33 @@
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
       </c>
       <c r="I2" s="2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1555,60 +1894,174 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
         <v>68</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
+      <c r="L7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1618,13 +2071,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
@@ -1640,7 +2095,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -1657,699 +2112,937 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
         <v>85</v>
       </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" t="s">
-        <v>86</v>
-      </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2359,6 +3052,122 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2379,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2393,24 +3202,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Deals.xlsx
+++ b/TestData/Deals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Add Deal" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="117">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -363,6 +363,15 @@
   </si>
   <si>
     <t>Countered deal successfully</t>
+  </si>
+  <si>
+    <t>Deals_Chat_ShipperUser_TC001</t>
+  </si>
+  <si>
+    <t>Deals_Chat_ShipperAdmin_TC002</t>
+  </si>
+  <si>
+    <t>Deals_Chat_CarrierUser_TC003</t>
   </si>
 </sst>
 </file>
@@ -724,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:K27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,6 +1776,120 @@
         <v>23</v>
       </c>
       <c r="L27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2071,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,6 +3168,57 @@
         <v>35</v>
       </c>
     </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3055,7 +3229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>

--- a/TestData/Deals.xlsx
+++ b/TestData/Deals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Add Deal" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="147">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -372,6 +372,96 @@
   </si>
   <si>
     <t>Deals_Chat_CarrierUser_TC003</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC002</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC003</t>
+  </si>
+  <si>
+    <t>AcceptDeal_TC001</t>
+  </si>
+  <si>
+    <t>AcceptDeal_TC002</t>
+  </si>
+  <si>
+    <t>DateFilter_TC001</t>
+  </si>
+  <si>
+    <t>DateFilter_TC002</t>
+  </si>
+  <si>
+    <t>DateFilter_TC003</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC002(2)</t>
+  </si>
+  <si>
+    <t>CounterDeal_TC003(2)</t>
+  </si>
+  <si>
+    <t>AcceptDeal_TC001(2)</t>
+  </si>
+  <si>
+    <t>AcceptDeal_TC001(3)</t>
+  </si>
+  <si>
+    <t>Booked</t>
+  </si>
+  <si>
+    <t>AcceptDeal_TC002(2)</t>
+  </si>
+  <si>
+    <t>AcceptDeal_TC002(3)</t>
+  </si>
+  <si>
+    <t>DateFilter_TC001(2)</t>
+  </si>
+  <si>
+    <t>DateFilter_TC001(3)</t>
+  </si>
+  <si>
+    <t>DateFilter_TC001(4)</t>
+  </si>
+  <si>
+    <t>DateFilter_TC002(2)</t>
+  </si>
+  <si>
+    <t>DateFilter_TC002(3)</t>
+  </si>
+  <si>
+    <t>DateFilter_TC002(4)</t>
+  </si>
+  <si>
+    <t>DateFilter_TC003(2)</t>
+  </si>
+  <si>
+    <t>DateFilter_TC003(3)</t>
+  </si>
+  <si>
+    <t>DateFilter_TC003(4)</t>
+  </si>
+  <si>
+    <t>Texarkana, TX, USA</t>
+  </si>
+  <si>
+    <t>$ 10.00/bu</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>$ 15.00/mi</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>$ 20.00/bu</t>
+  </si>
+  <si>
+    <t>$ 10.00/mi</t>
   </si>
 </sst>
 </file>
@@ -421,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -429,6 +519,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,13 +1834,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1758,13 +1849,13 @@
         <v>7</v>
       </c>
       <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
         <v>20</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" t="s">
-        <v>27</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1781,7 +1872,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -1796,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>19</v>
@@ -1805,7 +1896,7 @@
         <v>20</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>21</v>
@@ -1819,7 +1910,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -1834,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="F29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>19</v>
@@ -1843,7 +1934,7 @@
         <v>20</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
         <v>21</v>
@@ -1857,13 +1948,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1872,16 +1963,16 @@
         <v>7</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>21</v>
@@ -1890,6 +1981,272 @@
         <v>23</v>
       </c>
       <c r="L30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2194,10 +2551,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3136,7 +3493,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
@@ -3153,16 +3510,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
         <v>35</v>
@@ -3170,7 +3527,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
@@ -3187,7 +3544,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
@@ -3204,18 +3561,392 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
       </c>
       <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
         <v>38</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>34</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3227,10 +3958,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3299,7 +4030,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3316,7 +4047,7 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>108</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -3332,6 +4063,182 @@
         <v>112</v>
       </c>
       <c r="N2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" t="s">
         <v>113</v>
       </c>
     </row>

--- a/TestData/Deals.xlsx
+++ b/TestData/Deals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Add Deal" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="Deal Widget" sheetId="4" r:id="rId3"/>
     <sheet name="Counter Deal" sheetId="7" r:id="rId4"/>
     <sheet name="Duplicate" sheetId="5" r:id="rId5"/>
+    <sheet name="Filter" sheetId="8" r:id="rId6"/>
+    <sheet name="Export" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Edit Deal'!$A$1:$N$2</definedName>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="207">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -462,6 +464,186 @@
   </si>
   <si>
     <t>$ 10.00/mi</t>
+  </si>
+  <si>
+    <t>ChatConnection_TC001</t>
+  </si>
+  <si>
+    <t>ChatConnection_TC002</t>
+  </si>
+  <si>
+    <t>LocFilter_TC001</t>
+  </si>
+  <si>
+    <t>Cape May, NJ, USA</t>
+  </si>
+  <si>
+    <t>LocFilter_TC002</t>
+  </si>
+  <si>
+    <t>LocFilter_TC003</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC001</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC002</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC003</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC004</t>
+  </si>
+  <si>
+    <t>LocFilter_TC001(2)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC001(3)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC001(4)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC001(5)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC001(6)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC001(7)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC001(8)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC002(2)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC002(3)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC002(4)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC002(5)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC002(6)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC002(7)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC002(8)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC003(2)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC003(3)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC003(4)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC003(5)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC003(6)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC003(7)</t>
+  </si>
+  <si>
+    <t>LocFilter_TC003(8)</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC001(2)</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC001(3)</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC002(2)</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC002(3)</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC003(2)</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC003(3)</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC004(2)</t>
+  </si>
+  <si>
+    <t>NegotiateDeal_TC004(3)</t>
+  </si>
+  <si>
+    <t>Accepted Deal Successfully</t>
+  </si>
+  <si>
+    <t>Unable to counter deal</t>
+  </si>
+  <si>
+    <t>Unable to mute deal</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Outbound</t>
+  </si>
+  <si>
+    <t>FILTER</t>
+  </si>
+  <si>
+    <t>Location filtered successfully</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>Location reset successfully</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>ROUNDTRIP</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ExportDeal_TC001</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>Deal has been generated</t>
+  </si>
+  <si>
+    <t>ExportDeal_TC002</t>
+  </si>
+  <si>
+    <t>rogerdeals21+stan@gmail.com</t>
+  </si>
+  <si>
+    <t>Export request has been sent.</t>
   </si>
 </sst>
 </file>
@@ -824,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,6 +2429,348 @@
         <v>32</v>
       </c>
       <c r="L37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2551,10 +3075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,6 +4474,618 @@
         <v>35</v>
       </c>
     </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" t="s">
+        <v>107</v>
+      </c>
+      <c r="E94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" t="s">
+        <v>107</v>
+      </c>
+      <c r="E100" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" t="s">
+        <v>39</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" t="s">
+        <v>107</v>
+      </c>
+      <c r="E102" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" t="s">
+        <v>34</v>
+      </c>
+      <c r="E106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" t="s">
+        <v>54</v>
+      </c>
+      <c r="E107" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" t="s">
+        <v>54</v>
+      </c>
+      <c r="E110" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" t="s">
+        <v>107</v>
+      </c>
+      <c r="E111" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" t="s">
+        <v>38</v>
+      </c>
+      <c r="D112" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" t="s">
+        <v>39</v>
+      </c>
+      <c r="D113" t="s">
+        <v>54</v>
+      </c>
+      <c r="E113" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" t="s">
+        <v>107</v>
+      </c>
+      <c r="E114" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" t="s">
+        <v>107</v>
+      </c>
+      <c r="E116" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" t="s">
+        <v>107</v>
+      </c>
+      <c r="E117" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3958,10 +5094,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4195,7 +5331,7 @@
         <v>145</v>
       </c>
       <c r="N5" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -4239,7 +5375,227 @@
         <v>146</v>
       </c>
       <c r="N6" t="s">
-        <v>113</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4306,4 +5662,491 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/Deals.xlsx
+++ b/TestData/Deals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Add Deal" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="209">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -355,9 +355,6 @@
     <t>Conversation Count</t>
   </si>
   <si>
-    <t>San Jose, CA, USA</t>
-  </si>
-  <si>
     <t>Rate/UOM</t>
   </si>
   <si>
@@ -445,9 +442,6 @@
     <t>DateFilter_TC003(4)</t>
   </si>
   <si>
-    <t>Texarkana, TX, USA</t>
-  </si>
-  <si>
     <t>$ 10.00/bu</t>
   </si>
   <si>
@@ -644,6 +638,18 @@
   </si>
   <si>
     <t>Export request has been sent.</t>
+  </si>
+  <si>
+    <t>San Francisco, CA</t>
+  </si>
+  <si>
+    <t>San Jose, CA</t>
+  </si>
+  <si>
+    <t>Arlington, TX</t>
+  </si>
+  <si>
+    <t>Texarkana, TX</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2022,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -2054,7 +2060,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -2092,7 +2098,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -2168,7 +2174,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -2206,7 +2212,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -2244,7 +2250,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -2282,7 +2288,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -2320,7 +2326,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -2358,7 +2364,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -2472,7 +2478,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
@@ -2510,7 +2516,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -2537,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K40" t="s">
         <v>23</v>
@@ -2548,7 +2554,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
@@ -2586,7 +2592,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -2624,7 +2630,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -2662,7 +2668,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -2700,7 +2706,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -2738,7 +2744,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -4017,7 +4023,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
@@ -4034,7 +4040,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
@@ -4051,7 +4057,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
@@ -4102,7 +4108,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
@@ -4119,7 +4125,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
@@ -4136,7 +4142,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
@@ -4153,7 +4159,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
@@ -4170,7 +4176,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
@@ -4187,7 +4193,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
@@ -4204,13 +4210,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
         <v>127</v>
-      </c>
-      <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" t="s">
-        <v>128</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
@@ -4221,7 +4227,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
@@ -4238,7 +4244,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
@@ -4255,13 +4261,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
@@ -4272,7 +4278,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
@@ -4289,7 +4295,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
@@ -4306,7 +4312,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
@@ -4323,7 +4329,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -4340,7 +4346,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
@@ -4357,7 +4363,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -4374,7 +4380,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
@@ -4391,7 +4397,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -4408,7 +4414,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
@@ -4425,7 +4431,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
@@ -4442,7 +4448,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
@@ -4459,7 +4465,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
@@ -4476,7 +4482,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
@@ -4493,7 +4499,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
@@ -4510,7 +4516,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
@@ -4527,7 +4533,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
@@ -4544,7 +4550,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B86" t="s">
         <v>18</v>
@@ -4561,7 +4567,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
         <v>18</v>
@@ -4578,7 +4584,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
         <v>18</v>
@@ -4595,7 +4601,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B89" t="s">
         <v>18</v>
@@ -4612,7 +4618,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s">
         <v>18</v>
@@ -4629,7 +4635,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -4646,7 +4652,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B92" t="s">
         <v>18</v>
@@ -4663,7 +4669,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B93" t="s">
         <v>18</v>
@@ -4680,7 +4686,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B94" t="s">
         <v>18</v>
@@ -4697,7 +4703,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B95" t="s">
         <v>18</v>
@@ -4714,7 +4720,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B96" t="s">
         <v>18</v>
@@ -4731,7 +4737,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B97" t="s">
         <v>18</v>
@@ -4748,7 +4754,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
@@ -4765,7 +4771,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
         <v>18</v>
@@ -4782,7 +4788,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
         <v>18</v>
@@ -4799,7 +4805,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
         <v>18</v>
@@ -4816,7 +4822,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
         <v>18</v>
@@ -4833,7 +4839,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B103" t="s">
         <v>18</v>
@@ -4850,7 +4856,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B104" t="s">
         <v>18</v>
@@ -4867,7 +4873,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B105" t="s">
         <v>18</v>
@@ -4884,7 +4890,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B106" t="s">
         <v>18</v>
@@ -4901,7 +4907,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B107" t="s">
         <v>18</v>
@@ -4918,7 +4924,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B108" t="s">
         <v>18</v>
@@ -4935,7 +4941,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
         <v>18</v>
@@ -4952,7 +4958,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B110" t="s">
         <v>18</v>
@@ -4969,7 +4975,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B111" t="s">
         <v>18</v>
@@ -4986,7 +4992,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B112" t="s">
         <v>18</v>
@@ -5003,7 +5009,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B113" t="s">
         <v>18</v>
@@ -5020,7 +5026,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B114" t="s">
         <v>18</v>
@@ -5037,7 +5043,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B115" t="s">
         <v>18</v>
@@ -5054,7 +5060,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B116" t="s">
         <v>18</v>
@@ -5071,13 +5077,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B117" t="s">
         <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D117" t="s">
         <v>107</v>
@@ -5096,8 +5102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5146,7 +5152,7 @@
         <v>109</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>1</v>
@@ -5187,24 +5193,24 @@
         <v>108</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="L2" s="2">
         <v>2</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" t="s">
         <v>112</v>
-      </c>
-      <c r="N2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -5231,24 +5237,24 @@
         <v>67</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="L3" s="2">
         <v>2</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5263,7 +5269,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -5275,24 +5281,24 @@
         <v>74</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="L4" s="2">
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -5319,24 +5325,24 @@
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -5363,24 +5369,24 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="N6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -5407,24 +5413,24 @@
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -5451,24 +5457,24 @@
         <v>67</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="L8" s="2">
         <v>2</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -5483,7 +5489,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>19</v>
@@ -5495,24 +5501,24 @@
         <v>74</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="L9" s="2">
         <v>2</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -5539,24 +5545,24 @@
         <v>1</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -5583,19 +5589,19 @@
         <v>1</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5686,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -5709,130 +5715,130 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" t="s">
         <v>193</v>
-      </c>
-      <c r="D3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" t="s">
         <v>193</v>
-      </c>
-      <c r="D5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" t="s">
         <v>193</v>
-      </c>
-      <c r="D7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -5841,38 +5847,38 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" t="s">
         <v>193</v>
-      </c>
-      <c r="D9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -5881,38 +5887,38 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" t="s">
         <v>193</v>
-      </c>
-      <c r="D11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -5921,38 +5927,38 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" t="s">
         <v>193</v>
-      </c>
-      <c r="D13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -5961,38 +5967,38 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" t="s">
         <v>193</v>
-      </c>
-      <c r="D15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -6001,38 +6007,38 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
         <v>193</v>
-      </c>
-      <c r="D17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F17" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -6041,30 +6047,30 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" t="s">
         <v>193</v>
-      </c>
-      <c r="D19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6076,7 +6082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -6094,10 +6100,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -6114,36 +6120,36 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" t="s">
         <v>201</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Deals.xlsx
+++ b/TestData/Deals.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="274">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -358,9 +358,6 @@
     <t>Rate/UOM</t>
   </si>
   <si>
-    <t>$ 5.00/ea</t>
-  </si>
-  <si>
     <t>Countered deal successfully</t>
   </si>
   <si>
@@ -650,6 +647,204 @@
   </si>
   <si>
     <t>Texarkana, TX</t>
+  </si>
+  <si>
+    <t>ShipperUser_CreateDeal_TC002</t>
+  </si>
+  <si>
+    <t>ShipperUser_ShareDeal_TC003</t>
+  </si>
+  <si>
+    <t>ShipperUser_ShareDeal_TC003(2)</t>
+  </si>
+  <si>
+    <t>ShipperUser_DuplicateDeal_TC004(2)</t>
+  </si>
+  <si>
+    <t>ShipperUser_DuplicateDeal_TC004(3)</t>
+  </si>
+  <si>
+    <t>ShipperUser_DuplicateDeal_TC004</t>
+  </si>
+  <si>
+    <t>ShipperUser_ReShareDeal_TC004</t>
+  </si>
+  <si>
+    <t>ShipperUser_ReShareDeal_TC004(2)</t>
+  </si>
+  <si>
+    <t>ShipperUser_WithDrawDeal_TC005</t>
+  </si>
+  <si>
+    <t>ShipperUser_WithDrawDeal_TC005(2)</t>
+  </si>
+  <si>
+    <t>ShipperUser_WithDrawDeal_TC005(3)</t>
+  </si>
+  <si>
+    <t>ShipperUser_EditDeal_TC006</t>
+  </si>
+  <si>
+    <t>ShipperUser_EditDeal_TC006(2)</t>
+  </si>
+  <si>
+    <t>ShipperUser_EditDeal_TC006(3)</t>
+  </si>
+  <si>
+    <t>ShipperUser_EditDeal_TC007</t>
+  </si>
+  <si>
+    <t>ShipperUser_EditDeal_TC007(2)</t>
+  </si>
+  <si>
+    <t>ShipperUser_CounterDeal_TC008</t>
+  </si>
+  <si>
+    <t>ShipperUser_CounterDeal_TC008(2)</t>
+  </si>
+  <si>
+    <t>$ 5.00/each</t>
+  </si>
+  <si>
+    <t>ShipperUser_AcceptDeal_TC009</t>
+  </si>
+  <si>
+    <t>ShipperUser_AcceptDeal_TC009(2)</t>
+  </si>
+  <si>
+    <t>ShipperUser_AcceptDeal_TC009(3)</t>
+  </si>
+  <si>
+    <t>ShipperUser_NegotiateDeal_TC010</t>
+  </si>
+  <si>
+    <t>ShipperUser_NegotiateDeal_TC010(2)</t>
+  </si>
+  <si>
+    <t>ShipperUser_NegotiateDeal_TC010(3)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_CreateDeal_TC011</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_EditDeal_TC012</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_EditDeal_TC012(2)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_ShareAll_TC013</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_ShareAll_TC013(2)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_EditDeal_TC014</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_EditDeal_TC014(2)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_EditDeal_TC014(3)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_WithdrawDeal_TC015</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_WithdrawDeal_TC015(2)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_WithdrawDeal_TC015(3)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_CounterDeal_TC016</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_CounterDeal_TC016(2)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_CounterDeal_TC016(3)</t>
+  </si>
+  <si>
+    <t>GETSTARTEDCARRIER</t>
+  </si>
+  <si>
+    <t>GETSTARTEDSHIPPER</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_AcceptDeal_TC017</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_AcceptDeal_TC017(2)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_AcceptDeal_TC017(3)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_NegotiateDeal_TC018</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_NegotiateDeal_TC018(2)</t>
+  </si>
+  <si>
+    <t>ShipperAdmin_NegotiateDeal_TC018(3)</t>
+  </si>
+  <si>
+    <t>Carrier_CreateDeal_TC019</t>
+  </si>
+  <si>
+    <t>Carrier_EditDeal_TC020</t>
+  </si>
+  <si>
+    <t>Carrier_EditDeal_TC020(2)</t>
+  </si>
+  <si>
+    <t>Carrier_ShareAll_TC021</t>
+  </si>
+  <si>
+    <t>Carrier_ShareAll_TC021(2)</t>
+  </si>
+  <si>
+    <t>Carrier_EditDeal_TC022</t>
+  </si>
+  <si>
+    <t>Carrier_EditDeal_TC022(2)</t>
+  </si>
+  <si>
+    <t>Carrier_EditDeal_TC022(3)</t>
+  </si>
+  <si>
+    <t>Carrier_WithdrawDeal_TC023(2)</t>
+  </si>
+  <si>
+    <t>Carrier_WithdrawDeal_TC023(3)</t>
+  </si>
+  <si>
+    <t>Carrier_CounterDeal_TC024</t>
+  </si>
+  <si>
+    <t>Carrier_CounterDeal_TC024(2)</t>
+  </si>
+  <si>
+    <t>Carrier_CounterDeal_TC024(3)</t>
+  </si>
+  <si>
+    <t>Carrier_AcceptDeal_TC025</t>
+  </si>
+  <si>
+    <t>Carrier_AcceptDeal_TC025(2)</t>
+  </si>
+  <si>
+    <t>Carrier_AcceptDeal_TC025(3)</t>
+  </si>
+  <si>
+    <t>Carrier_NegotiateDeal_TC026</t>
+  </si>
+  <si>
+    <t>Carrier_NegotiateDeal_TC026(2)</t>
+  </si>
+  <si>
+    <t>Carrier_NegotiateDeal_TC026(3)</t>
   </si>
 </sst>
 </file>
@@ -1012,15 +1207,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:L46"/>
+    <sheetView topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55:K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -2022,7 +2217,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -2060,7 +2255,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -2098,7 +2293,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -2174,7 +2369,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -2212,7 +2407,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -2250,7 +2445,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -2288,7 +2483,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -2326,7 +2521,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -2364,7 +2559,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -2402,7 +2597,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -2440,7 +2635,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -2478,7 +2673,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
@@ -2516,7 +2711,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -2543,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K40" t="s">
         <v>23</v>
@@ -2554,7 +2749,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
@@ -2592,7 +2787,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -2630,7 +2825,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -2668,7 +2863,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -2706,7 +2901,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -2744,7 +2939,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -2777,6 +2972,348 @@
         <v>23</v>
       </c>
       <c r="L46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>31</v>
+      </c>
+      <c r="K54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2788,15 +3325,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -3074,6 +3611,234 @@
         <v>68</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3081,15 +3846,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
@@ -4023,7 +4788,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
@@ -4040,7 +4805,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
@@ -4057,7 +4822,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
@@ -4108,7 +4873,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
@@ -4125,7 +4890,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
@@ -4142,7 +4907,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
@@ -4159,7 +4924,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
@@ -4176,7 +4941,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
@@ -4193,7 +4958,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
@@ -4210,13 +4975,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
         <v>126</v>
-      </c>
-      <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" t="s">
-        <v>127</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
@@ -4227,7 +4992,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
@@ -4244,7 +5009,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
@@ -4261,13 +5026,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
@@ -4278,7 +5043,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
@@ -4295,7 +5060,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
@@ -4312,7 +5077,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
@@ -4329,7 +5094,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -4346,7 +5111,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
@@ -4363,7 +5128,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -4380,7 +5145,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
@@ -4397,7 +5162,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -4414,7 +5179,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
@@ -4431,7 +5196,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
@@ -4448,7 +5213,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
@@ -4465,7 +5230,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
@@ -4482,7 +5247,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
@@ -4499,7 +5264,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
@@ -4516,7 +5281,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
@@ -4533,7 +5298,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
@@ -4550,7 +5315,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
         <v>18</v>
@@ -4567,7 +5332,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
         <v>18</v>
@@ -4584,7 +5349,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
         <v>18</v>
@@ -4601,7 +5366,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B89" t="s">
         <v>18</v>
@@ -4618,7 +5383,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B90" t="s">
         <v>18</v>
@@ -4635,7 +5400,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -4652,7 +5417,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B92" t="s">
         <v>18</v>
@@ -4669,7 +5434,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B93" t="s">
         <v>18</v>
@@ -4686,7 +5451,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B94" t="s">
         <v>18</v>
@@ -4703,7 +5468,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B95" t="s">
         <v>18</v>
@@ -4720,7 +5485,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B96" t="s">
         <v>18</v>
@@ -4737,7 +5502,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B97" t="s">
         <v>18</v>
@@ -4754,7 +5519,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
@@ -4771,7 +5536,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B99" t="s">
         <v>18</v>
@@ -4788,7 +5553,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B100" t="s">
         <v>18</v>
@@ -4805,7 +5570,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B101" t="s">
         <v>18</v>
@@ -4822,7 +5587,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B102" t="s">
         <v>18</v>
@@ -4839,7 +5604,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B103" t="s">
         <v>18</v>
@@ -4856,7 +5621,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B104" t="s">
         <v>18</v>
@@ -4873,7 +5638,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B105" t="s">
         <v>18</v>
@@ -4890,7 +5655,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B106" t="s">
         <v>18</v>
@@ -4907,7 +5672,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B107" t="s">
         <v>18</v>
@@ -4924,7 +5689,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B108" t="s">
         <v>18</v>
@@ -4941,7 +5706,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B109" t="s">
         <v>18</v>
@@ -4958,7 +5723,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B110" t="s">
         <v>18</v>
@@ -4975,7 +5740,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B111" t="s">
         <v>18</v>
@@ -4992,7 +5757,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B112" t="s">
         <v>18</v>
@@ -5009,7 +5774,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B113" t="s">
         <v>18</v>
@@ -5026,7 +5791,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
         <v>18</v>
@@ -5043,7 +5808,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B115" t="s">
         <v>18</v>
@@ -5060,7 +5825,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B116" t="s">
         <v>18</v>
@@ -5077,18 +5842,1004 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B117" t="s">
         <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D117" t="s">
         <v>107</v>
       </c>
       <c r="E117" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" t="s">
+        <v>107</v>
+      </c>
+      <c r="E119" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B121" t="s">
+        <v>49</v>
+      </c>
+      <c r="C121" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" t="s">
+        <v>107</v>
+      </c>
+      <c r="E121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B122" t="s">
+        <v>52</v>
+      </c>
+      <c r="C122" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" t="s">
+        <v>107</v>
+      </c>
+      <c r="E122" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" t="s">
+        <v>38</v>
+      </c>
+      <c r="D123" t="s">
+        <v>34</v>
+      </c>
+      <c r="E123" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" t="s">
+        <v>34</v>
+      </c>
+      <c r="E124" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" t="s">
+        <v>39</v>
+      </c>
+      <c r="D126" t="s">
+        <v>54</v>
+      </c>
+      <c r="E126" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" t="s">
+        <v>39</v>
+      </c>
+      <c r="D129" t="s">
+        <v>66</v>
+      </c>
+      <c r="E129" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" t="s">
+        <v>54</v>
+      </c>
+      <c r="E130" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131" t="s">
+        <v>66</v>
+      </c>
+      <c r="E131" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" t="s">
+        <v>85</v>
+      </c>
+      <c r="E132" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" t="s">
+        <v>34</v>
+      </c>
+      <c r="E133" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" t="s">
+        <v>39</v>
+      </c>
+      <c r="D134" t="s">
+        <v>107</v>
+      </c>
+      <c r="E134" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" t="s">
+        <v>39</v>
+      </c>
+      <c r="D135" t="s">
+        <v>107</v>
+      </c>
+      <c r="E135" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" t="s">
+        <v>126</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" t="s">
+        <v>38</v>
+      </c>
+      <c r="D137" t="s">
+        <v>34</v>
+      </c>
+      <c r="E137" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>39</v>
+      </c>
+      <c r="D138" t="s">
+        <v>107</v>
+      </c>
+      <c r="E138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B139" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" t="s">
+        <v>126</v>
+      </c>
+      <c r="D139" t="s">
+        <v>107</v>
+      </c>
+      <c r="E139" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>38</v>
+      </c>
+      <c r="D140" t="s">
+        <v>66</v>
+      </c>
+      <c r="E140" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" t="s">
+        <v>38</v>
+      </c>
+      <c r="D141" t="s">
+        <v>107</v>
+      </c>
+      <c r="E141" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B142" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" t="s">
+        <v>38</v>
+      </c>
+      <c r="D142" t="s">
+        <v>34</v>
+      </c>
+      <c r="E142" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B143" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" t="s">
+        <v>38</v>
+      </c>
+      <c r="D144" t="s">
+        <v>34</v>
+      </c>
+      <c r="E144" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" t="s">
+        <v>39</v>
+      </c>
+      <c r="D145" t="s">
+        <v>66</v>
+      </c>
+      <c r="E145" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B146" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" t="s">
+        <v>39</v>
+      </c>
+      <c r="D146" t="s">
+        <v>107</v>
+      </c>
+      <c r="E146" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B147" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" t="s">
+        <v>38</v>
+      </c>
+      <c r="D147" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B148" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" t="s">
+        <v>39</v>
+      </c>
+      <c r="D148" t="s">
+        <v>54</v>
+      </c>
+      <c r="E148" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B149" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" t="s">
+        <v>56</v>
+      </c>
+      <c r="D149" t="s">
+        <v>107</v>
+      </c>
+      <c r="E149" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B150" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" t="s">
+        <v>38</v>
+      </c>
+      <c r="D150" t="s">
+        <v>34</v>
+      </c>
+      <c r="E150" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" t="s">
+        <v>39</v>
+      </c>
+      <c r="D151" t="s">
+        <v>247</v>
+      </c>
+      <c r="E151" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" t="s">
+        <v>39</v>
+      </c>
+      <c r="D152" t="s">
+        <v>248</v>
+      </c>
+      <c r="E152" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" t="s">
+        <v>39</v>
+      </c>
+      <c r="D153" t="s">
+        <v>107</v>
+      </c>
+      <c r="E153" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" t="s">
+        <v>126</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B155" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" t="s">
+        <v>38</v>
+      </c>
+      <c r="D155" t="s">
+        <v>34</v>
+      </c>
+      <c r="E155" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B156" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" t="s">
+        <v>107</v>
+      </c>
+      <c r="E156" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" t="s">
+        <v>126</v>
+      </c>
+      <c r="D157" t="s">
+        <v>107</v>
+      </c>
+      <c r="E157" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B158" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" t="s">
+        <v>38</v>
+      </c>
+      <c r="D158" t="s">
+        <v>107</v>
+      </c>
+      <c r="E158" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" t="s">
+        <v>38</v>
+      </c>
+      <c r="D159" t="s">
+        <v>66</v>
+      </c>
+      <c r="E159" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" t="s">
+        <v>38</v>
+      </c>
+      <c r="D160" t="s">
+        <v>107</v>
+      </c>
+      <c r="E160" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" t="s">
+        <v>38</v>
+      </c>
+      <c r="D161" t="s">
+        <v>34</v>
+      </c>
+      <c r="E161" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" t="s">
+        <v>39</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" t="s">
+        <v>38</v>
+      </c>
+      <c r="D163" t="s">
+        <v>34</v>
+      </c>
+      <c r="E163" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" t="s">
+        <v>39</v>
+      </c>
+      <c r="D164" t="s">
+        <v>66</v>
+      </c>
+      <c r="E164" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165" t="s">
+        <v>107</v>
+      </c>
+      <c r="E165" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" t="s">
+        <v>39</v>
+      </c>
+      <c r="D166" t="s">
+        <v>54</v>
+      </c>
+      <c r="E166" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B167" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" t="s">
+        <v>56</v>
+      </c>
+      <c r="D167" t="s">
+        <v>107</v>
+      </c>
+      <c r="E167" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" t="s">
+        <v>38</v>
+      </c>
+      <c r="D168" t="s">
+        <v>34</v>
+      </c>
+      <c r="E168" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B169" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" t="s">
+        <v>39</v>
+      </c>
+      <c r="D169" t="s">
+        <v>107</v>
+      </c>
+      <c r="E169" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B170" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170" t="s">
+        <v>107</v>
+      </c>
+      <c r="E170" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B171" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" t="s">
+        <v>39</v>
+      </c>
+      <c r="D171" t="s">
+        <v>107</v>
+      </c>
+      <c r="E171" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" t="s">
+        <v>126</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B173" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" t="s">
+        <v>38</v>
+      </c>
+      <c r="D173" t="s">
+        <v>34</v>
+      </c>
+      <c r="E173" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" t="s">
+        <v>39</v>
+      </c>
+      <c r="D174" t="s">
+        <v>107</v>
+      </c>
+      <c r="E174" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B175" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" t="s">
+        <v>126</v>
+      </c>
+      <c r="D175" t="s">
+        <v>107</v>
+      </c>
+      <c r="E175" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5100,15 +6851,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="18.28515625" customWidth="1"/>
     <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -5193,24 +6944,24 @@
         <v>108</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="L2" s="2">
         <v>2</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N2" t="s">
         <v>111</v>
-      </c>
-      <c r="N2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -5237,24 +6988,24 @@
         <v>67</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="L3" s="2">
         <v>2</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5269,7 +7020,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -5281,24 +7032,24 @@
         <v>74</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="L4" s="2">
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -5325,24 +7076,24 @@
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="L5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="N5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -5369,24 +7120,24 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -5413,24 +7164,24 @@
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="L7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="N7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -5457,24 +7208,24 @@
         <v>67</v>
       </c>
       <c r="J8" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="L8" s="2">
         <v>2</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -5489,7 +7240,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>19</v>
@@ -5501,24 +7252,24 @@
         <v>74</v>
       </c>
       <c r="J9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="L9" s="2">
         <v>2</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -5545,24 +7296,24 @@
         <v>1</v>
       </c>
       <c r="J10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="L10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="N10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -5589,19 +7340,503 @@
         <v>1</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="N11" t="s">
-        <v>186</v>
+      <c r="K16" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" s="2">
+        <v>2</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N22" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5612,10 +7847,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5662,6 +7897,17 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5692,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -5715,130 +7961,130 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" t="s">
         <v>147</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" t="s">
-        <v>148</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
         <v>189</v>
-      </c>
-      <c r="F2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" t="s">
         <v>191</v>
       </c>
-      <c r="D3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>192</v>
-      </c>
-      <c r="F3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" t="s">
         <v>189</v>
-      </c>
-      <c r="F4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" t="s">
         <v>191</v>
       </c>
-      <c r="D5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>192</v>
-      </c>
-      <c r="F5" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" t="s">
         <v>189</v>
-      </c>
-      <c r="F6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" t="s">
         <v>191</v>
       </c>
-      <c r="D7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>192</v>
-      </c>
-      <c r="F7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -5847,38 +8093,38 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" t="s">
         <v>191</v>
       </c>
-      <c r="D9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>192</v>
-      </c>
-      <c r="F9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -5887,38 +8133,38 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" t="s">
         <v>189</v>
-      </c>
-      <c r="F10" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" t="s">
         <v>191</v>
       </c>
-      <c r="D11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>192</v>
-      </c>
-      <c r="F11" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -5927,38 +8173,38 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" t="s">
         <v>189</v>
-      </c>
-      <c r="F12" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" t="s">
         <v>191</v>
       </c>
-      <c r="D13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>192</v>
-      </c>
-      <c r="F13" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -5967,38 +8213,38 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" t="s">
         <v>189</v>
-      </c>
-      <c r="F14" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" t="s">
         <v>191</v>
       </c>
-      <c r="D15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>192</v>
-      </c>
-      <c r="F15" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -6007,38 +8253,38 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" t="s">
         <v>189</v>
-      </c>
-      <c r="F16" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" t="s">
         <v>191</v>
       </c>
-      <c r="D17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>192</v>
-      </c>
-      <c r="F17" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -6047,30 +8293,30 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" t="s">
         <v>189</v>
-      </c>
-      <c r="F18" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" t="s">
         <v>191</v>
       </c>
-      <c r="D19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>192</v>
-      </c>
-      <c r="F19" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6100,10 +8346,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -6120,36 +8366,36 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>200</v>
-      </c>
-      <c r="E2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Deals.xlsx
+++ b/TestData/Deals.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="272">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -637,18 +637,6 @@
     <t>Export request has been sent.</t>
   </si>
   <si>
-    <t>San Francisco, CA</t>
-  </si>
-  <si>
-    <t>San Jose, CA</t>
-  </si>
-  <si>
-    <t>Arlington, TX</t>
-  </si>
-  <si>
-    <t>Texarkana, TX</t>
-  </si>
-  <si>
     <t>ShipperUser_CreateDeal_TC002</t>
   </si>
   <si>
@@ -845,6 +833,12 @@
   </si>
   <si>
     <t>Carrier_NegotiateDeal_TC026(3)</t>
+  </si>
+  <si>
+    <t>San Jose, CA, USA</t>
+  </si>
+  <si>
+    <t>Texarkana, TX, USA</t>
   </si>
 </sst>
 </file>
@@ -2977,7 +2971,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
@@ -3015,7 +3009,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
@@ -3053,7 +3047,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
@@ -3091,7 +3085,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -3129,7 +3123,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
@@ -3167,7 +3161,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
@@ -3205,7 +3199,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
@@ -3243,7 +3237,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
@@ -3281,7 +3275,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
@@ -3613,7 +3607,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -3651,7 +3645,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -3689,7 +3683,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -3727,7 +3721,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -3765,7 +3759,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -3803,7 +3797,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -5859,7 +5853,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B118" t="s">
         <v>18</v>
@@ -5876,7 +5870,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B119" t="s">
         <v>18</v>
@@ -5893,7 +5887,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B120" t="s">
         <v>18</v>
@@ -5910,7 +5904,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B121" t="s">
         <v>49</v>
@@ -5927,7 +5921,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B122" t="s">
         <v>52</v>
@@ -5944,7 +5938,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B123" t="s">
         <v>18</v>
@@ -5961,7 +5955,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B124" t="s">
         <v>18</v>
@@ -5978,7 +5972,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B125" t="s">
         <v>18</v>
@@ -5995,7 +5989,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B126" t="s">
         <v>18</v>
@@ -6012,7 +6006,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B127" t="s">
         <v>18</v>
@@ -6029,7 +6023,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B128" t="s">
         <v>18</v>
@@ -6046,7 +6040,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B129" t="s">
         <v>18</v>
@@ -6063,7 +6057,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B130" t="s">
         <v>18</v>
@@ -6080,7 +6074,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B131" t="s">
         <v>18</v>
@@ -6097,7 +6091,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B132" t="s">
         <v>18</v>
@@ -6114,7 +6108,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B133" t="s">
         <v>18</v>
@@ -6131,7 +6125,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B134" t="s">
         <v>18</v>
@@ -6148,7 +6142,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B135" t="s">
         <v>18</v>
@@ -6165,7 +6159,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B136" t="s">
         <v>18</v>
@@ -6182,7 +6176,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B137" t="s">
         <v>18</v>
@@ -6199,7 +6193,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B138" t="s">
         <v>18</v>
@@ -6216,7 +6210,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B139" t="s">
         <v>18</v>
@@ -6233,7 +6227,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B140" t="s">
         <v>18</v>
@@ -6250,7 +6244,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B141" t="s">
         <v>18</v>
@@ -6267,7 +6261,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B142" t="s">
         <v>18</v>
@@ -6284,7 +6278,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B143" t="s">
         <v>18</v>
@@ -6301,7 +6295,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B144" t="s">
         <v>18</v>
@@ -6318,7 +6312,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B145" t="s">
         <v>18</v>
@@ -6335,7 +6329,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B146" t="s">
         <v>18</v>
@@ -6352,7 +6346,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B147" t="s">
         <v>18</v>
@@ -6369,7 +6363,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B148" t="s">
         <v>18</v>
@@ -6386,7 +6380,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B149" t="s">
         <v>18</v>
@@ -6403,7 +6397,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B150" t="s">
         <v>18</v>
@@ -6420,7 +6414,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B151" t="s">
         <v>18</v>
@@ -6429,7 +6423,7 @@
         <v>39</v>
       </c>
       <c r="D151" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E151" t="s">
         <v>35</v>
@@ -6437,7 +6431,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B152" t="s">
         <v>18</v>
@@ -6446,7 +6440,7 @@
         <v>39</v>
       </c>
       <c r="D152" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E152" t="s">
         <v>35</v>
@@ -6454,7 +6448,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B153" t="s">
         <v>18</v>
@@ -6471,7 +6465,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B154" t="s">
         <v>18</v>
@@ -6488,7 +6482,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B155" t="s">
         <v>18</v>
@@ -6505,7 +6499,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B156" t="s">
         <v>18</v>
@@ -6522,7 +6516,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B157" t="s">
         <v>18</v>
@@ -6539,7 +6533,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B158" t="s">
         <v>18</v>
@@ -6556,7 +6550,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B159" t="s">
         <v>18</v>
@@ -6573,7 +6567,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B160" t="s">
         <v>18</v>
@@ -6590,7 +6584,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B161" t="s">
         <v>18</v>
@@ -6607,7 +6601,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B162" t="s">
         <v>18</v>
@@ -6624,7 +6618,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B163" t="s">
         <v>18</v>
@@ -6641,7 +6635,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B164" t="s">
         <v>18</v>
@@ -6658,7 +6652,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B165" t="s">
         <v>18</v>
@@ -6675,7 +6669,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>18</v>
@@ -6692,7 +6686,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>18</v>
@@ -6709,7 +6703,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>18</v>
@@ -6726,7 +6720,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>18</v>
@@ -6743,7 +6737,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>18</v>
@@ -6760,7 +6754,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>18</v>
@@ -6777,7 +6771,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>18</v>
@@ -6794,7 +6788,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>18</v>
@@ -6811,7 +6805,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B174" t="s">
         <v>18</v>
@@ -6828,7 +6822,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B175" t="s">
         <v>18</v>
@@ -6853,8 +6847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6944,16 +6938,16 @@
         <v>108</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L2" s="2">
         <v>2</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N2" t="s">
         <v>111</v>
@@ -6988,10 +6982,10 @@
         <v>67</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="L3" s="2">
         <v>2</v>
@@ -7032,10 +7026,10 @@
         <v>74</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L4" s="2">
         <v>2</v>
@@ -7076,10 +7070,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>141</v>
@@ -7120,10 +7114,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>141</v>
@@ -7164,10 +7158,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>141</v>
@@ -7208,10 +7202,10 @@
         <v>67</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="L8" s="2">
         <v>2</v>
@@ -7252,10 +7246,10 @@
         <v>74</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L9" s="2">
         <v>2</v>
@@ -7296,10 +7290,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>141</v>
@@ -7340,10 +7334,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>141</v>
@@ -7357,7 +7351,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -7384,16 +7378,16 @@
         <v>108</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L12" s="2">
         <v>2</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N12" t="s">
         <v>111</v>
@@ -7401,7 +7395,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -7428,16 +7422,16 @@
         <v>108</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L13" s="2">
         <v>2</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N13" t="s">
         <v>183</v>
@@ -7445,7 +7439,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -7472,16 +7466,16 @@
         <v>108</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L14" s="2">
         <v>2</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N14" t="s">
         <v>183</v>
@@ -7489,7 +7483,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -7516,16 +7510,16 @@
         <v>108</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L15" s="2">
         <v>2</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N15" t="s">
         <v>185</v>
@@ -7533,7 +7527,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -7560,10 +7554,10 @@
         <v>67</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="L16" s="2">
         <v>2</v>
@@ -7577,7 +7571,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -7604,10 +7598,10 @@
         <v>67</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="L17" s="2">
         <v>2</v>
@@ -7621,7 +7615,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -7648,10 +7642,10 @@
         <v>67</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="L18" s="2">
         <v>2</v>
@@ -7665,7 +7659,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -7692,10 +7686,10 @@
         <v>67</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="L19" s="2">
         <v>2</v>
@@ -7709,7 +7703,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -7736,10 +7730,10 @@
         <v>67</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L20" s="2">
         <v>2</v>
@@ -7753,7 +7747,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -7780,10 +7774,10 @@
         <v>67</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L21" s="2">
         <v>2</v>
@@ -7797,7 +7791,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -7824,10 +7818,10 @@
         <v>67</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L22" s="2">
         <v>2</v>
@@ -7902,7 +7896,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>47</v>
